--- a/OnBoard/output/trust/bio/Bio_Trust_5.xlsx
+++ b/OnBoard/output/trust/bio/Bio_Trust_5.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q165"/>
+  <dimension ref="A1:Q185"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,7 +447,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -462,12 +462,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F2">
@@ -477,19 +477,14 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>34</v>
+        <v>61</v>
       </c>
       <c r="I2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L2">
@@ -499,7 +494,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -514,12 +509,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>MELIKER</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F3">
@@ -529,19 +524,14 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="I3">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L3">
@@ -551,7 +541,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -566,12 +556,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CHLAGLA</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F4">
@@ -581,10 +571,10 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>43</v>
+        <v>74</v>
       </c>
       <c r="I4">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -598,7 +588,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -613,12 +603,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CHLAGLA</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F5">
@@ -628,10 +618,10 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="I5">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
@@ -645,7 +635,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -660,12 +650,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F6">
@@ -675,14 +665,14 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>221</v>
+        <v>72</v>
       </c>
       <c r="I6">
-        <v>-1</v>
+        <v>42</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L6">
@@ -692,7 +682,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -707,12 +697,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F7">
@@ -722,14 +712,14 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="I7">
-        <v>-1</v>
+        <v>38</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L7">
@@ -739,7 +729,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -754,12 +744,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F8">
@@ -769,14 +759,14 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="I8">
-        <v>-1</v>
+        <v>35</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L8">
@@ -786,7 +776,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -801,12 +791,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F9">
@@ -816,14 +806,14 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="I9">
-        <v>-1</v>
+        <v>22</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L9">
@@ -833,7 +823,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -848,12 +838,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F10">
@@ -863,14 +853,14 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>95</v>
+        <v>47</v>
       </c>
       <c r="I10">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L10">
@@ -880,7 +870,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -895,12 +885,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>SYGNASP</t>
         </is>
       </c>
       <c r="F11">
@@ -910,7 +900,7 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>100</v>
+        <v>278</v>
       </c>
       <c r="I11">
         <v>-1</v>
@@ -927,7 +917,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -942,12 +932,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F12">
@@ -957,7 +947,7 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>82</v>
+        <v>262</v>
       </c>
       <c r="I12">
         <v>-1</v>
@@ -974,7 +964,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -989,12 +979,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F13">
@@ -1004,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>107</v>
+        <v>233</v>
       </c>
       <c r="I13">
         <v>-1</v>
@@ -1021,7 +1011,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1036,12 +1026,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>BLENOCE</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F14">
@@ -1051,7 +1041,7 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>119</v>
+        <v>228</v>
       </c>
       <c r="I14">
         <v>-1</v>
@@ -1068,7 +1058,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1083,7 +1073,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1098,7 +1088,7 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="I15">
         <v>-1</v>
@@ -1115,7 +1105,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1130,7 +1120,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1145,7 +1135,7 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="I16">
         <v>-1</v>
@@ -1162,7 +1152,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1177,7 +1167,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1192,7 +1182,7 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="I17">
         <v>-1</v>
@@ -1209,7 +1199,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1224,7 +1214,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1239,7 +1229,7 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="I18">
         <v>-1</v>
@@ -1256,7 +1246,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1271,7 +1261,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1286,7 +1276,7 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="I19">
         <v>-1</v>
@@ -1303,7 +1293,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1318,7 +1308,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1333,7 +1323,7 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="I20">
         <v>-1</v>
@@ -1350,7 +1340,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1365,7 +1355,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1380,7 +1370,7 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="I21">
         <v>-1</v>
@@ -1397,7 +1387,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1412,7 +1402,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1427,7 +1417,7 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="I22">
         <v>-1</v>
@@ -1444,7 +1434,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1459,7 +1449,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1474,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I23">
         <v>-1</v>
@@ -1491,7 +1481,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1506,7 +1496,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1521,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="I24">
         <v>-1</v>
@@ -1538,7 +1528,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1553,12 +1543,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>CITHMAC</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="F25">
@@ -1568,7 +1558,7 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>161</v>
+        <v>82</v>
       </c>
       <c r="I25">
         <v>-1</v>
@@ -1585,7 +1575,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1600,12 +1590,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F26">
@@ -1615,7 +1605,7 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="I26">
         <v>-1</v>
@@ -1632,7 +1622,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1647,12 +1637,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F27">
@@ -1662,7 +1652,7 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="I27">
         <v>-1</v>
@@ -1679,7 +1669,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1694,12 +1684,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>LOLIVUL</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F28">
@@ -1709,7 +1699,7 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="I28">
         <v>-1</v>
@@ -1726,7 +1716,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1741,12 +1731,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>MULLBAR</t>
         </is>
       </c>
       <c r="F29">
@@ -1756,14 +1746,14 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>29</v>
+        <v>139</v>
       </c>
       <c r="I29">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L29">
@@ -1773,7 +1763,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1788,12 +1778,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>SOLEIMP</t>
         </is>
       </c>
       <c r="F30">
@@ -1803,29 +1793,24 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>25</v>
+        <v>159</v>
       </c>
       <c r="I30">
-        <v>25</v>
+        <v>-1</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L30">
         <v>0</v>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1840,12 +1825,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>SQUIMAN</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F31">
@@ -1855,10 +1840,10 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <v>27</v>
+        <v>317</v>
       </c>
       <c r="I31">
-        <v>38</v>
+        <v>248</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
@@ -1867,7 +1852,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>FROSQ-3</t>
+          <t>MEDFI-2</t>
         </is>
       </c>
       <c r="L31">
@@ -1877,7 +1862,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1892,12 +1877,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F32">
@@ -1907,19 +1892,19 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>93</v>
+        <v>35</v>
       </c>
       <c r="I32">
-        <v>100</v>
+        <v>23</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>SOSEM-3</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L32">
@@ -1929,7 +1914,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1944,12 +1929,12 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F33">
@@ -1959,10 +1944,10 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>90</v>
+        <v>28</v>
       </c>
       <c r="I33">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
@@ -1971,7 +1956,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>SOSEF-1</t>
+          <t>FROSQ-1</t>
         </is>
       </c>
       <c r="L33">
@@ -1981,7 +1966,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1996,12 +1981,12 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F34">
@@ -2011,19 +1996,19 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <v>93</v>
+        <v>225</v>
       </c>
       <c r="I34">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>SOSEF-1</t>
+          <t>HOLRM-3</t>
         </is>
       </c>
       <c r="L34">
@@ -2033,7 +2018,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2048,12 +2033,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F35">
@@ -2063,10 +2048,10 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>90</v>
+        <v>228</v>
       </c>
       <c r="I35">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2075,7 +2060,7 @@
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>SOSEM-3</t>
+          <t>HOLRM-3</t>
         </is>
       </c>
       <c r="L35">
@@ -2085,7 +2070,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2100,12 +2085,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>SEPIELE</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F36">
@@ -2115,14 +2100,19 @@
         <v>1</v>
       </c>
       <c r="H36">
-        <v>46</v>
+        <v>254</v>
       </c>
       <c r="I36">
-        <v>-1</v>
+        <v>112</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L36">
@@ -2132,7 +2122,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2152,7 +2142,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>AEQUOPE</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F37">
@@ -2162,14 +2152,19 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>46</v>
+        <v>280</v>
       </c>
       <c r="I37">
-        <v>16</v>
+        <v>210</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L37">
@@ -2179,7 +2174,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2199,7 +2194,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>AEQUOPE</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F38">
@@ -2209,14 +2204,19 @@
         <v>1</v>
       </c>
       <c r="H38">
-        <v>41</v>
+        <v>240</v>
       </c>
       <c r="I38">
-        <v>13</v>
+        <v>117</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>HOLRA-1</t>
         </is>
       </c>
       <c r="L38">
@@ -2226,7 +2226,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2246,7 +2246,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>AEQUOPE</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F39">
@@ -2256,14 +2256,19 @@
         <v>1</v>
       </c>
       <c r="H39">
-        <v>45</v>
+        <v>232</v>
       </c>
       <c r="I39">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L39">
@@ -2273,7 +2278,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2293,7 +2298,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>AEQUOPE</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F40">
@@ -2303,14 +2308,19 @@
         <v>1</v>
       </c>
       <c r="H40">
-        <v>39</v>
+        <v>230</v>
       </c>
       <c r="I40">
-        <v>12</v>
+        <v>111</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>HOLRM-3</t>
         </is>
       </c>
       <c r="L40">
@@ -2320,7 +2330,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2340,7 +2350,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>CHLAGLA</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F41">
@@ -2350,14 +2360,19 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <v>41</v>
+        <v>282</v>
       </c>
       <c r="I41">
-        <v>12</v>
+        <v>225</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L41">
@@ -2367,7 +2382,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2387,7 +2402,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>CHLAGLA</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F42">
@@ -2397,14 +2412,19 @@
         <v>1</v>
       </c>
       <c r="H42">
-        <v>43</v>
+        <v>239</v>
       </c>
       <c r="I42">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L42">
@@ -2414,7 +2434,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2434,7 +2454,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>CHLAGLA</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F43">
@@ -2444,14 +2464,19 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <v>46</v>
+        <v>263</v>
       </c>
       <c r="I43">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L43">
@@ -2461,7 +2486,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2481,7 +2506,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>CHLAGLA</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F44">
@@ -2491,14 +2516,19 @@
         <v>1</v>
       </c>
       <c r="H44">
-        <v>50</v>
+        <v>226</v>
       </c>
       <c r="I44">
-        <v>21</v>
+        <v>95</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>HOLRM-3</t>
         </is>
       </c>
       <c r="L44">
@@ -2508,7 +2538,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2528,7 +2558,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>CHLAGLA</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F45">
@@ -2538,14 +2568,19 @@
         <v>1</v>
       </c>
       <c r="H45">
-        <v>45</v>
+        <v>205</v>
       </c>
       <c r="I45">
-        <v>12</v>
+        <v>81</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L45">
@@ -2555,7 +2590,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2575,7 +2610,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>CHLAGLA</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F46">
@@ -2585,14 +2620,19 @@
         <v>1</v>
       </c>
       <c r="H46">
-        <v>44</v>
+        <v>285</v>
       </c>
       <c r="I46">
-        <v>13</v>
+        <v>203</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L46">
@@ -2602,7 +2642,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2622,7 +2662,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>CHLAGLA</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F47">
@@ -2632,14 +2672,19 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>46</v>
+        <v>217</v>
       </c>
       <c r="I47">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>HOLRM-3</t>
         </is>
       </c>
       <c r="L47">
@@ -2649,7 +2694,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2669,7 +2714,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F48">
@@ -2679,14 +2724,19 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <v>99</v>
+        <v>192</v>
       </c>
       <c r="I48">
-        <v>-1</v>
+        <v>52</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>HOLRM-1</t>
         </is>
       </c>
       <c r="L48">
@@ -2696,7 +2746,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2716,7 +2766,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F49">
@@ -2726,14 +2776,19 @@
         <v>1</v>
       </c>
       <c r="H49">
-        <v>88</v>
+        <v>227</v>
       </c>
       <c r="I49">
-        <v>-1</v>
+        <v>87</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>HOLRM-3</t>
         </is>
       </c>
       <c r="L49">
@@ -2743,7 +2798,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2763,7 +2818,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>LEPTCAV</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F50">
@@ -2773,14 +2828,19 @@
         <v>1</v>
       </c>
       <c r="H50">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="I50">
-        <v>-1</v>
+        <v>331</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>SOSEM-3</t>
         </is>
       </c>
       <c r="L50">
@@ -2790,7 +2850,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2810,7 +2870,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>TRIGLUC</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F51">
@@ -2820,14 +2880,19 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <v>180</v>
+        <v>118</v>
       </c>
       <c r="I51">
-        <v>-1</v>
+        <v>215</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>SOSEM-3</t>
         </is>
       </c>
       <c r="L51">
@@ -2837,7 +2902,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2857,7 +2922,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>SERAHEP</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F52">
@@ -2867,14 +2932,19 @@
         <v>1</v>
       </c>
       <c r="H52">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="I52">
-        <v>-1</v>
+        <v>287</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>SOSEF-3</t>
         </is>
       </c>
       <c r="L52">
@@ -2884,7 +2954,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -2904,7 +2974,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>PAGEERY</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F53">
@@ -2914,14 +2984,19 @@
         <v>1</v>
       </c>
       <c r="H53">
-        <v>107</v>
+        <v>160</v>
       </c>
       <c r="I53">
-        <v>-1</v>
+        <v>485</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>SOSEM-3</t>
         </is>
       </c>
       <c r="L53">
@@ -2931,7 +3006,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -2951,7 +3026,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F54">
@@ -2961,14 +3036,19 @@
         <v>1</v>
       </c>
       <c r="H54">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="I54">
-        <v>-1</v>
+        <v>91</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>SOSEF-1</t>
         </is>
       </c>
       <c r="L54">
@@ -2978,7 +3058,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -2998,7 +3078,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>ELEDMOS</t>
         </is>
       </c>
       <c r="F55">
@@ -3008,7 +3088,7 @@
         <v>1</v>
       </c>
       <c r="H55">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="I55">
         <v>-1</v>
@@ -3025,7 +3105,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3045,7 +3125,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>ELEDMOS</t>
         </is>
       </c>
       <c r="F56">
@@ -3055,7 +3135,7 @@
         <v>1</v>
       </c>
       <c r="H56">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="I56">
         <v>-1</v>
@@ -3072,7 +3152,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3092,7 +3172,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F57">
@@ -3102,14 +3182,19 @@
         <v>1</v>
       </c>
       <c r="H57">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="I57">
-        <v>-1</v>
+        <v>73</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>SOSEF-1</t>
         </is>
       </c>
       <c r="L57">
@@ -3119,7 +3204,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3134,12 +3219,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F58">
@@ -3149,14 +3234,19 @@
         <v>1</v>
       </c>
       <c r="H58">
-        <v>101</v>
+        <v>232</v>
       </c>
       <c r="I58">
-        <v>-1</v>
+        <v>110</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L58">
@@ -3166,7 +3256,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3181,12 +3271,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F59">
@@ -3196,14 +3286,19 @@
         <v>1</v>
       </c>
       <c r="H59">
-        <v>110</v>
+        <v>226</v>
       </c>
       <c r="I59">
-        <v>-1</v>
+        <v>97</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>HOLRM-3</t>
         </is>
       </c>
       <c r="L59">
@@ -3213,7 +3308,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3228,12 +3323,12 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F60">
@@ -3243,14 +3338,19 @@
         <v>1</v>
       </c>
       <c r="H60">
-        <v>115</v>
+        <v>235</v>
       </c>
       <c r="I60">
-        <v>-1</v>
+        <v>122</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L60">
@@ -3260,7 +3360,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3275,12 +3375,12 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F61">
@@ -3290,14 +3390,19 @@
         <v>1</v>
       </c>
       <c r="H61">
-        <v>86</v>
+        <v>247</v>
       </c>
       <c r="I61">
-        <v>-1</v>
+        <v>125</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>HOLRM-3</t>
         </is>
       </c>
       <c r="L61">
@@ -3307,7 +3412,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3322,12 +3427,12 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F62">
@@ -3337,14 +3442,19 @@
         <v>1</v>
       </c>
       <c r="H62">
-        <v>112</v>
+        <v>227</v>
       </c>
       <c r="I62">
-        <v>-1</v>
+        <v>87</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>HOLRM-3</t>
         </is>
       </c>
       <c r="L62">
@@ -3354,7 +3464,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3369,12 +3479,12 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F63">
@@ -3384,14 +3494,19 @@
         <v>1</v>
       </c>
       <c r="H63">
-        <v>118</v>
+        <v>222</v>
       </c>
       <c r="I63">
-        <v>-1</v>
+        <v>90</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>HOLRM-3</t>
         </is>
       </c>
       <c r="L63">
@@ -3401,7 +3516,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3416,12 +3531,12 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F64">
@@ -3431,14 +3546,19 @@
         <v>1</v>
       </c>
       <c r="H64">
-        <v>96</v>
+        <v>243</v>
       </c>
       <c r="I64">
-        <v>-1</v>
+        <v>118</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>HOLRM-3</t>
         </is>
       </c>
       <c r="L64">
@@ -3448,7 +3568,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3463,12 +3583,12 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F65">
@@ -3478,14 +3598,19 @@
         <v>1</v>
       </c>
       <c r="H65">
-        <v>127</v>
+        <v>222</v>
       </c>
       <c r="I65">
-        <v>-1</v>
+        <v>91</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L65">
@@ -3495,7 +3620,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3510,12 +3635,12 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F66">
@@ -3525,14 +3650,19 @@
         <v>1</v>
       </c>
       <c r="H66">
-        <v>92</v>
+        <v>218</v>
       </c>
       <c r="I66">
-        <v>-1</v>
+        <v>90</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L66">
@@ -3542,7 +3672,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3557,12 +3687,12 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F67">
@@ -3572,14 +3702,19 @@
         <v>1</v>
       </c>
       <c r="H67">
-        <v>112</v>
+        <v>249</v>
       </c>
       <c r="I67">
-        <v>-1</v>
+        <v>134</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L67">
@@ -3589,7 +3724,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3604,12 +3739,12 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F68">
@@ -3619,14 +3754,19 @@
         <v>1</v>
       </c>
       <c r="H68">
-        <v>58</v>
+        <v>240</v>
       </c>
       <c r="I68">
-        <v>-1</v>
+        <v>110</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L68">
@@ -3636,7 +3776,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3651,12 +3791,12 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F69">
@@ -3666,14 +3806,19 @@
         <v>1</v>
       </c>
       <c r="H69">
-        <v>61</v>
+        <v>248</v>
       </c>
       <c r="I69">
-        <v>-1</v>
+        <v>130</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L69">
@@ -3683,7 +3828,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3698,12 +3843,12 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>ELEDMOS</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F70">
@@ -3713,14 +3858,19 @@
         <v>1</v>
       </c>
       <c r="H70">
-        <v>78</v>
+        <v>233</v>
       </c>
       <c r="I70">
-        <v>-1</v>
+        <v>95</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L70">
@@ -3730,7 +3880,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3745,12 +3895,12 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F71">
@@ -3760,10 +3910,10 @@
         <v>1</v>
       </c>
       <c r="H71">
-        <v>125</v>
+        <v>248</v>
       </c>
       <c r="I71">
-        <v>248</v>
+        <v>133</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -3772,7 +3922,7 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>SOSEF-3</t>
+          <t>HOLRA-4</t>
         </is>
       </c>
       <c r="L71">
@@ -3782,7 +3932,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3797,12 +3947,12 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F72">
@@ -3812,19 +3962,19 @@
         <v>1</v>
       </c>
       <c r="H72">
-        <v>155</v>
+        <v>254</v>
       </c>
       <c r="I72">
-        <v>405</v>
+        <v>143</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>SOSEF-3</t>
+          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L72">
@@ -3834,7 +3984,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -3864,19 +4014,19 @@
         <v>1</v>
       </c>
       <c r="H73">
-        <v>266</v>
+        <v>239</v>
       </c>
       <c r="I73">
-        <v>173</v>
+        <v>111</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>HOLRM-2</t>
+          <t>HOLRA-1</t>
         </is>
       </c>
       <c r="L73">
@@ -3886,7 +4036,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -3916,10 +4066,10 @@
         <v>1</v>
       </c>
       <c r="H74">
-        <v>239</v>
+        <v>252</v>
       </c>
       <c r="I74">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -3928,7 +4078,7 @@
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>HOLRA-1</t>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L74">
@@ -3938,7 +4088,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -3968,19 +4118,19 @@
         <v>1</v>
       </c>
       <c r="H75">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I75">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>HOLRA-1</t>
+          <t>HOLRM-3</t>
         </is>
       </c>
       <c r="L75">
@@ -3990,7 +4140,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -4020,10 +4170,10 @@
         <v>1</v>
       </c>
       <c r="H76">
-        <v>251</v>
+        <v>210</v>
       </c>
       <c r="I76">
-        <v>148</v>
+        <v>70</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -4032,7 +4182,7 @@
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>HOLRM-1</t>
+          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L76">
@@ -4042,7 +4192,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -4072,10 +4222,10 @@
         <v>1</v>
       </c>
       <c r="H77">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="I77">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
@@ -4084,7 +4234,7 @@
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>HOLRM-1</t>
+          <t>HOLRM-2</t>
         </is>
       </c>
       <c r="L77">
@@ -4094,7 +4244,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -4114,7 +4264,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F78">
@@ -4124,29 +4274,29 @@
         <v>1</v>
       </c>
       <c r="H78">
-        <v>237</v>
+        <v>72</v>
       </c>
       <c r="I78">
-        <v>125</v>
+        <v>58</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L78">
         <v>0</v>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>NA w inferred</t>
+        </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -4166,7 +4316,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F79">
@@ -4176,19 +4326,14 @@
         <v>1</v>
       </c>
       <c r="H79">
-        <v>246</v>
+        <v>78</v>
       </c>
       <c r="I79">
-        <v>124</v>
+        <v>57</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>HOLRA-1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L79">
@@ -4198,7 +4343,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4218,7 +4363,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F80">
@@ -4228,19 +4373,14 @@
         <v>1</v>
       </c>
       <c r="H80">
-        <v>220</v>
+        <v>65</v>
       </c>
       <c r="I80">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L80">
@@ -4250,7 +4390,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4270,7 +4410,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F81">
@@ -4280,19 +4420,14 @@
         <v>1</v>
       </c>
       <c r="H81">
-        <v>231</v>
+        <v>91</v>
       </c>
       <c r="I81">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L81">
@@ -4302,7 +4437,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -4322,7 +4457,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F82">
@@ -4332,19 +4467,14 @@
         <v>1</v>
       </c>
       <c r="H82">
-        <v>246</v>
+        <v>57</v>
       </c>
       <c r="I82">
-        <v>123</v>
+        <v>26</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L82">
@@ -4354,7 +4484,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4374,7 +4504,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F83">
@@ -4384,19 +4514,14 @@
         <v>1</v>
       </c>
       <c r="H83">
-        <v>232</v>
+        <v>52</v>
       </c>
       <c r="I83">
-        <v>113</v>
+        <v>19</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L83">
@@ -4406,7 +4531,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -4426,7 +4551,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F84">
@@ -4436,19 +4561,14 @@
         <v>1</v>
       </c>
       <c r="H84">
-        <v>224</v>
+        <v>59</v>
       </c>
       <c r="I84">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L84">
@@ -4458,7 +4578,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -4478,7 +4598,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F85">
@@ -4488,19 +4608,14 @@
         <v>1</v>
       </c>
       <c r="H85">
-        <v>246</v>
+        <v>97</v>
       </c>
       <c r="I85">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L85">
@@ -4510,7 +4625,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -4530,7 +4645,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>PECTJAC</t>
         </is>
       </c>
       <c r="F86">
@@ -4540,19 +4655,14 @@
         <v>1</v>
       </c>
       <c r="H86">
-        <v>249</v>
+        <v>84</v>
       </c>
       <c r="I86">
-        <v>146</v>
+        <v>71</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L86">
@@ -4562,7 +4672,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4582,7 +4692,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SOLEIMP</t>
         </is>
       </c>
       <c r="F87">
@@ -4592,19 +4702,14 @@
         <v>1</v>
       </c>
       <c r="H87">
-        <v>247</v>
+        <v>170</v>
       </c>
       <c r="I87">
-        <v>144</v>
+        <v>-1</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L87">
@@ -4614,7 +4719,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4634,7 +4739,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SOLEIMP</t>
         </is>
       </c>
       <c r="F88">
@@ -4644,19 +4749,14 @@
         <v>1</v>
       </c>
       <c r="H88">
-        <v>254</v>
+        <v>175</v>
       </c>
       <c r="I88">
-        <v>150</v>
+        <v>-1</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L88">
@@ -4666,7 +4766,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -4686,7 +4786,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F89">
@@ -4696,19 +4796,14 @@
         <v>1</v>
       </c>
       <c r="H89">
-        <v>224</v>
+        <v>256</v>
       </c>
       <c r="I89">
-        <v>98</v>
+        <v>-1</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L89">
@@ -4718,7 +4813,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -4738,7 +4833,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F90">
@@ -4748,19 +4843,14 @@
         <v>1</v>
       </c>
       <c r="H90">
-        <v>244</v>
+        <v>260</v>
       </c>
       <c r="I90">
-        <v>115</v>
+        <v>-1</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L90">
@@ -4770,7 +4860,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4790,7 +4880,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F91">
@@ -4800,19 +4890,14 @@
         <v>1</v>
       </c>
       <c r="H91">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="I91">
-        <v>135</v>
+        <v>-1</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L91">
@@ -4822,7 +4907,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -4842,7 +4927,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F92">
@@ -4852,19 +4937,14 @@
         <v>1</v>
       </c>
       <c r="H92">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="I92">
-        <v>127</v>
+        <v>-1</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L92">
@@ -4874,7 +4954,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -4894,7 +4974,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F93">
@@ -4904,19 +4984,14 @@
         <v>1</v>
       </c>
       <c r="H93">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="I93">
-        <v>138</v>
+        <v>-1</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L93">
@@ -4926,7 +5001,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -4946,7 +5021,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>PAGEERY</t>
         </is>
       </c>
       <c r="F94">
@@ -4956,19 +5031,14 @@
         <v>1</v>
       </c>
       <c r="H94">
-        <v>258</v>
+        <v>106</v>
       </c>
       <c r="I94">
-        <v>150</v>
+        <v>-1</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>HOLRA-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L94">
@@ -4978,7 +5048,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -4998,7 +5068,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F95">
@@ -5008,19 +5078,14 @@
         <v>1</v>
       </c>
       <c r="H95">
-        <v>223</v>
+        <v>91</v>
       </c>
       <c r="I95">
-        <v>108</v>
+        <v>-1</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L95">
@@ -5030,7 +5095,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -5050,7 +5115,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>LEPTCAV</t>
         </is>
       </c>
       <c r="F96">
@@ -5060,19 +5125,14 @@
         <v>1</v>
       </c>
       <c r="H96">
-        <v>245</v>
+        <v>82</v>
       </c>
       <c r="I96">
-        <v>131</v>
+        <v>-1</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L96">
@@ -5082,7 +5142,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -5102,7 +5162,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F97">
@@ -5112,19 +5172,14 @@
         <v>1</v>
       </c>
       <c r="H97">
-        <v>227</v>
+        <v>79</v>
       </c>
       <c r="I97">
-        <v>96</v>
+        <v>-1</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L97">
@@ -5134,7 +5189,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -5154,7 +5209,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F98">
@@ -5164,19 +5219,14 @@
         <v>1</v>
       </c>
       <c r="H98">
-        <v>222</v>
+        <v>99</v>
       </c>
       <c r="I98">
-        <v>95</v>
+        <v>-1</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L98">
@@ -5186,7 +5236,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -5206,7 +5256,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F99">
@@ -5216,19 +5266,14 @@
         <v>1</v>
       </c>
       <c r="H99">
-        <v>251</v>
+        <v>102</v>
       </c>
       <c r="I99">
-        <v>125</v>
+        <v>-1</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>HOLRM-3</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L99">
@@ -5238,7 +5283,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -5258,7 +5303,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F100">
@@ -5268,19 +5313,14 @@
         <v>1</v>
       </c>
       <c r="H100">
-        <v>221</v>
+        <v>110</v>
       </c>
       <c r="I100">
-        <v>98</v>
+        <v>-1</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L100">
@@ -5290,7 +5330,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -5310,7 +5350,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F101">
@@ -5320,19 +5360,14 @@
         <v>1</v>
       </c>
       <c r="H101">
-        <v>259</v>
+        <v>108</v>
       </c>
       <c r="I101">
-        <v>136</v>
+        <v>-1</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L101">
@@ -5342,7 +5377,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -5362,7 +5397,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F102">
@@ -5372,19 +5407,14 @@
         <v>1</v>
       </c>
       <c r="H102">
-        <v>237</v>
+        <v>120</v>
       </c>
       <c r="I102">
-        <v>114</v>
+        <v>-1</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L102">
@@ -5394,7 +5424,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -5414,7 +5444,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F103">
@@ -5424,19 +5454,14 @@
         <v>1</v>
       </c>
       <c r="H103">
-        <v>239</v>
+        <v>89</v>
       </c>
       <c r="I103">
-        <v>117</v>
+        <v>-1</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L103">
@@ -5446,7 +5471,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -5466,7 +5491,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F104">
@@ -5476,19 +5501,14 @@
         <v>1</v>
       </c>
       <c r="H104">
-        <v>236</v>
+        <v>105</v>
       </c>
       <c r="I104">
-        <v>111</v>
+        <v>-1</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L104">
@@ -5498,7 +5518,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -5518,7 +5538,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F105">
@@ -5528,19 +5548,14 @@
         <v>1</v>
       </c>
       <c r="H105">
-        <v>234</v>
+        <v>108</v>
       </c>
       <c r="I105">
-        <v>108</v>
+        <v>-1</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L105">
@@ -5550,7 +5565,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -5570,7 +5585,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F106">
@@ -5580,19 +5595,14 @@
         <v>1</v>
       </c>
       <c r="H106">
-        <v>246</v>
+        <v>107</v>
       </c>
       <c r="I106">
-        <v>142</v>
+        <v>-1</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L106">
@@ -5602,7 +5612,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -5622,7 +5632,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F107">
@@ -5632,19 +5642,14 @@
         <v>1</v>
       </c>
       <c r="H107">
-        <v>226</v>
+        <v>95</v>
       </c>
       <c r="I107">
-        <v>101</v>
+        <v>-1</v>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L107">
@@ -5654,7 +5659,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -5674,7 +5679,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F108">
@@ -5684,19 +5689,14 @@
         <v>1</v>
       </c>
       <c r="H108">
-        <v>245</v>
+        <v>97</v>
       </c>
       <c r="I108">
-        <v>122</v>
+        <v>-1</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L108">
@@ -5706,7 +5706,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -5726,7 +5726,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F109">
@@ -5736,19 +5736,14 @@
         <v>1</v>
       </c>
       <c r="H109">
-        <v>243</v>
+        <v>114</v>
       </c>
       <c r="I109">
-        <v>138</v>
+        <v>-1</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L109">
@@ -5758,7 +5753,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -5778,7 +5773,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOTHO</t>
         </is>
       </c>
       <c r="F110">
@@ -5788,19 +5783,14 @@
         <v>1</v>
       </c>
       <c r="H110">
-        <v>248</v>
+        <v>77</v>
       </c>
       <c r="I110">
-        <v>128</v>
+        <v>-1</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L110">
@@ -5810,7 +5800,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -5830,7 +5820,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="F111">
@@ -5840,19 +5830,14 @@
         <v>1</v>
       </c>
       <c r="H111">
-        <v>229</v>
+        <v>112</v>
       </c>
       <c r="I111">
-        <v>101</v>
+        <v>-1</v>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L111">
@@ -5862,7 +5847,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -5882,7 +5867,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="F112">
@@ -5892,19 +5877,14 @@
         <v>1</v>
       </c>
       <c r="H112">
-        <v>220</v>
+        <v>103</v>
       </c>
       <c r="I112">
-        <v>89</v>
+        <v>-1</v>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>HOLRA-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L112">
@@ -5914,7 +5894,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -5934,7 +5914,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ELEDMOS</t>
         </is>
       </c>
       <c r="F113">
@@ -5944,19 +5924,14 @@
         <v>1</v>
       </c>
       <c r="H113">
-        <v>225</v>
+        <v>43</v>
       </c>
       <c r="I113">
-        <v>98</v>
+        <v>-1</v>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L113">
@@ -5966,7 +5941,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -5986,7 +5961,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F114">
@@ -5996,10 +5971,10 @@
         <v>1</v>
       </c>
       <c r="H114">
-        <v>254</v>
+        <v>107</v>
       </c>
       <c r="I114">
-        <v>147</v>
+        <v>197</v>
       </c>
       <c r="J114" t="inlineStr">
         <is>
@@ -6008,7 +5983,7 @@
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>HOLRA-1</t>
+          <t>SOSEF-2</t>
         </is>
       </c>
       <c r="L114">
@@ -6018,7 +5993,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -6038,7 +6013,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F115">
@@ -6048,10 +6023,10 @@
         <v>1</v>
       </c>
       <c r="H115">
-        <v>244</v>
+        <v>103</v>
       </c>
       <c r="I115">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="J115" t="inlineStr">
         <is>
@@ -6060,7 +6035,7 @@
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>HOLRM-1</t>
+          <t>SOSEM-3</t>
         </is>
       </c>
       <c r="L115">
@@ -6070,7 +6045,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -6090,7 +6065,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F116">
@@ -6100,19 +6075,19 @@
         <v>1</v>
       </c>
       <c r="H116">
-        <v>240</v>
+        <v>112</v>
       </c>
       <c r="I116">
-        <v>116</v>
+        <v>185</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>HOLRM-2</t>
+          <t>SOSEF-2</t>
         </is>
       </c>
       <c r="L116">
@@ -6122,7 +6097,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -6142,7 +6117,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F117">
@@ -6152,19 +6127,19 @@
         <v>1</v>
       </c>
       <c r="H117">
-        <v>237</v>
+        <v>83</v>
       </c>
       <c r="I117">
-        <v>126</v>
+        <v>90</v>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
         <is>
-          <t>HOLRA-1</t>
+          <t>SOSEM-2</t>
         </is>
       </c>
       <c r="L117">
@@ -6174,7 +6149,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -6194,7 +6169,7 @@
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F118">
@@ -6204,10 +6179,10 @@
         <v>1</v>
       </c>
       <c r="H118">
-        <v>239</v>
+        <v>99</v>
       </c>
       <c r="I118">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
@@ -6216,7 +6191,7 @@
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>HOLRM-1</t>
+          <t>SOSEM-3</t>
         </is>
       </c>
       <c r="L118">
@@ -6226,7 +6201,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -6246,7 +6221,7 @@
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F119">
@@ -6256,10 +6231,10 @@
         <v>1</v>
       </c>
       <c r="H119">
-        <v>235</v>
+        <v>104</v>
       </c>
       <c r="I119">
-        <v>105</v>
+        <v>154</v>
       </c>
       <c r="J119" t="inlineStr">
         <is>
@@ -6268,7 +6243,7 @@
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>HOLRM-1</t>
+          <t>SOSEM-3</t>
         </is>
       </c>
       <c r="L119">
@@ -6278,7 +6253,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -6293,7 +6268,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -6308,29 +6283,34 @@
         <v>1</v>
       </c>
       <c r="H120">
-        <v>225</v>
+        <v>147</v>
       </c>
       <c r="I120">
-        <v>96</v>
+        <v>26</v>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K120" t="inlineStr">
         <is>
-          <t>HOLRM-1</t>
+          <t>HOLRA-1</t>
         </is>
       </c>
       <c r="L120">
         <v>0</v>
+      </c>
+      <c r="N120" t="inlineStr">
+        <is>
+          <t>SS8355</t>
+        </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
@@ -6345,7 +6325,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -6360,10 +6340,10 @@
         <v>1</v>
       </c>
       <c r="H121">
-        <v>232</v>
+        <v>159</v>
       </c>
       <c r="I121">
-        <v>90</v>
+        <v>29</v>
       </c>
       <c r="J121" t="inlineStr">
         <is>
@@ -6377,12 +6357,17 @@
       </c>
       <c r="L121">
         <v>0</v>
+      </c>
+      <c r="N121" t="inlineStr">
+        <is>
+          <t>SS8356</t>
+        </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
@@ -6397,7 +6382,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -6412,10 +6397,10 @@
         <v>1</v>
       </c>
       <c r="H122">
-        <v>245</v>
+        <v>155</v>
       </c>
       <c r="I122">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="J122" t="inlineStr">
         <is>
@@ -6424,17 +6409,22 @@
       </c>
       <c r="K122" t="inlineStr">
         <is>
-          <t>HOLRM-2</t>
+          <t>HOLRM-1</t>
         </is>
       </c>
       <c r="L122">
         <v>0</v>
+      </c>
+      <c r="N122" t="inlineStr">
+        <is>
+          <t>SS8357</t>
+        </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
@@ -6464,10 +6454,10 @@
         <v>1</v>
       </c>
       <c r="H123">
-        <v>239</v>
+        <v>309</v>
       </c>
       <c r="I123">
-        <v>118</v>
+        <v>283</v>
       </c>
       <c r="J123" t="inlineStr">
         <is>
@@ -6476,17 +6466,27 @@
       </c>
       <c r="K123" t="inlineStr">
         <is>
-          <t>HOLRA-1</t>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L123">
         <v>0</v>
+      </c>
+      <c r="N123" t="inlineStr">
+        <is>
+          <t>SS8358</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>forma oto simile a SA ma sicuramente SOLEVUL</t>
+        </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
@@ -6506,7 +6506,7 @@
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>SOLEAEG</t>
         </is>
       </c>
       <c r="F124">
@@ -6516,29 +6516,34 @@
         <v>1</v>
       </c>
       <c r="H124">
-        <v>223</v>
+        <v>283</v>
       </c>
       <c r="I124">
-        <v>92</v>
+        <v>218</v>
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
         <is>
-          <t>HOLRM-1</t>
+          <t>HOLRA-2</t>
         </is>
       </c>
       <c r="L124">
         <v>0</v>
+      </c>
+      <c r="N124" t="inlineStr">
+        <is>
+          <t>SA007</t>
+        </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
@@ -6553,12 +6558,12 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOTHO</t>
         </is>
       </c>
       <c r="F125">
@@ -6568,19 +6573,14 @@
         <v>1</v>
       </c>
       <c r="H125">
-        <v>223</v>
+        <v>100</v>
       </c>
       <c r="I125">
-        <v>96</v>
+        <v>-1</v>
       </c>
       <c r="J125" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L125">
@@ -6590,7 +6590,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
@@ -6610,7 +6610,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F126">
@@ -6620,19 +6620,14 @@
         <v>1</v>
       </c>
       <c r="H126">
-        <v>251</v>
+        <v>71</v>
       </c>
       <c r="I126">
-        <v>142</v>
+        <v>-1</v>
       </c>
       <c r="J126" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L126">
@@ -6642,7 +6637,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
@@ -6662,7 +6657,7 @@
       </c>
       <c r="E127" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F127">
@@ -6672,19 +6667,14 @@
         <v>1</v>
       </c>
       <c r="H127">
-        <v>240</v>
+        <v>66</v>
       </c>
       <c r="I127">
-        <v>107</v>
+        <v>-1</v>
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L127">
@@ -6694,7 +6684,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
@@ -6714,7 +6704,7 @@
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F128">
@@ -6724,19 +6714,14 @@
         <v>1</v>
       </c>
       <c r="H128">
-        <v>225</v>
+        <v>47</v>
       </c>
       <c r="I128">
-        <v>105</v>
+        <v>15</v>
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L128">
@@ -6746,7 +6731,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
@@ -6766,7 +6751,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F129">
@@ -6776,19 +6761,14 @@
         <v>1</v>
       </c>
       <c r="H129">
-        <v>254</v>
+        <v>47</v>
       </c>
       <c r="I129">
-        <v>130</v>
+        <v>15</v>
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L129">
@@ -6798,7 +6778,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
@@ -6818,7 +6798,7 @@
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F130">
@@ -6828,19 +6808,14 @@
         <v>1</v>
       </c>
       <c r="H130">
-        <v>237</v>
+        <v>44</v>
       </c>
       <c r="I130">
-        <v>117</v>
+        <v>10</v>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L130">
@@ -6850,7 +6825,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
@@ -6870,7 +6845,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F131">
@@ -6880,19 +6855,14 @@
         <v>1</v>
       </c>
       <c r="H131">
-        <v>264</v>
+        <v>25</v>
       </c>
       <c r="I131">
-        <v>168</v>
+        <v>3</v>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>HOLRA-1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L131">
@@ -6902,7 +6872,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -6922,7 +6892,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F132">
@@ -6932,19 +6902,14 @@
         <v>1</v>
       </c>
       <c r="H132">
-        <v>232</v>
+        <v>31</v>
       </c>
       <c r="I132">
-        <v>112</v>
+        <v>4</v>
       </c>
       <c r="J132" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>HOLRA-1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L132">
@@ -6954,7 +6919,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
@@ -6974,7 +6939,7 @@
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F133">
@@ -6984,19 +6949,14 @@
         <v>1</v>
       </c>
       <c r="H133">
-        <v>253</v>
+        <v>25</v>
       </c>
       <c r="I133">
-        <v>133</v>
+        <v>2</v>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L133">
@@ -7006,7 +6966,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -7026,7 +6986,7 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F134">
@@ -7036,19 +6996,14 @@
         <v>1</v>
       </c>
       <c r="H134">
-        <v>250</v>
+        <v>29</v>
       </c>
       <c r="I134">
-        <v>135</v>
+        <v>4</v>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L134">
@@ -7058,7 +7013,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -7078,7 +7033,7 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F135">
@@ -7088,19 +7043,14 @@
         <v>1</v>
       </c>
       <c r="H135">
-        <v>250</v>
+        <v>19</v>
       </c>
       <c r="I135">
-        <v>166</v>
+        <v>1</v>
       </c>
       <c r="J135" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L135">
@@ -7110,7 +7060,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
@@ -7130,7 +7080,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F136">
@@ -7140,19 +7090,14 @@
         <v>1</v>
       </c>
       <c r="H136">
-        <v>222</v>
+        <v>26</v>
       </c>
       <c r="I136">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L136">
@@ -7162,7 +7107,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
@@ -7182,7 +7127,7 @@
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F137">
@@ -7192,19 +7137,14 @@
         <v>1</v>
       </c>
       <c r="H137">
-        <v>245</v>
+        <v>22</v>
       </c>
       <c r="I137">
-        <v>131</v>
+        <v>2</v>
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L137">
@@ -7214,7 +7154,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
@@ -7234,7 +7174,7 @@
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F138">
@@ -7244,19 +7184,14 @@
         <v>1</v>
       </c>
       <c r="H138">
-        <v>230</v>
+        <v>22</v>
       </c>
       <c r="I138">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L138">
@@ -7266,7 +7201,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -7286,7 +7221,7 @@
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F139">
@@ -7296,19 +7231,14 @@
         <v>1</v>
       </c>
       <c r="H139">
-        <v>240</v>
+        <v>21</v>
       </c>
       <c r="I139">
-        <v>165</v>
+        <v>2</v>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L139">
@@ -7318,7 +7248,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
@@ -7338,7 +7268,7 @@
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F140">
@@ -7348,19 +7278,14 @@
         <v>1</v>
       </c>
       <c r="H140">
-        <v>225</v>
+        <v>31</v>
       </c>
       <c r="I140">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="J140" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L140">
@@ -7370,7 +7295,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
@@ -7390,7 +7315,7 @@
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F141">
@@ -7400,19 +7325,14 @@
         <v>1</v>
       </c>
       <c r="H141">
-        <v>239</v>
+        <v>18</v>
       </c>
       <c r="I141">
-        <v>118</v>
+        <v>1</v>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L141">
@@ -7422,7 +7342,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -7442,7 +7362,7 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F142">
@@ -7452,19 +7372,14 @@
         <v>1</v>
       </c>
       <c r="H142">
-        <v>250</v>
+        <v>24</v>
       </c>
       <c r="I142">
-        <v>138</v>
+        <v>3</v>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L142">
@@ -7474,7 +7389,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -7494,7 +7409,7 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F143">
@@ -7504,19 +7419,14 @@
         <v>1</v>
       </c>
       <c r="H143">
-        <v>256</v>
+        <v>18</v>
       </c>
       <c r="I143">
-        <v>153</v>
+        <v>2</v>
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>HOLRA-1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L143">
@@ -7526,7 +7436,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -7546,7 +7456,7 @@
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F144">
@@ -7556,19 +7466,14 @@
         <v>1</v>
       </c>
       <c r="H144">
-        <v>225</v>
+        <v>20</v>
       </c>
       <c r="I144">
-        <v>124</v>
+        <v>1</v>
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L144">
@@ -7578,7 +7483,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -7598,7 +7503,7 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F145">
@@ -7608,19 +7513,14 @@
         <v>1</v>
       </c>
       <c r="H145">
-        <v>259</v>
+        <v>22</v>
       </c>
       <c r="I145">
-        <v>163</v>
+        <v>2</v>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L145">
@@ -7630,7 +7530,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -7650,7 +7550,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F146">
@@ -7660,19 +7560,14 @@
         <v>1</v>
       </c>
       <c r="H146">
-        <v>245</v>
+        <v>26</v>
       </c>
       <c r="I146">
-        <v>152</v>
+        <v>3</v>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L146">
@@ -7682,7 +7577,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -7702,7 +7597,7 @@
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F147">
@@ -7712,19 +7607,14 @@
         <v>1</v>
       </c>
       <c r="H147">
-        <v>245</v>
+        <v>17</v>
       </c>
       <c r="I147">
-        <v>122</v>
+        <v>1</v>
       </c>
       <c r="J147" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L147">
@@ -7734,7 +7624,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -7754,7 +7644,7 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F148">
@@ -7764,19 +7654,14 @@
         <v>1</v>
       </c>
       <c r="H148">
-        <v>224</v>
+        <v>17</v>
       </c>
       <c r="I148">
-        <v>107</v>
+        <v>1</v>
       </c>
       <c r="J148" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L148">
@@ -7786,7 +7671,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -7806,7 +7691,7 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F149">
@@ -7816,19 +7701,14 @@
         <v>1</v>
       </c>
       <c r="H149">
-        <v>242</v>
+        <v>24</v>
       </c>
       <c r="I149">
-        <v>130</v>
+        <v>2</v>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L149">
@@ -7838,7 +7718,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -7858,7 +7738,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F150">
@@ -7868,19 +7748,14 @@
         <v>1</v>
       </c>
       <c r="H150">
-        <v>237</v>
+        <v>22</v>
       </c>
       <c r="I150">
-        <v>136</v>
+        <v>2</v>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L150">
@@ -7890,7 +7765,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -7910,7 +7785,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F151">
@@ -7920,19 +7795,14 @@
         <v>1</v>
       </c>
       <c r="H151">
-        <v>252</v>
+        <v>22</v>
       </c>
       <c r="I151">
-        <v>148</v>
+        <v>2</v>
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L151">
@@ -7942,7 +7812,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -7962,7 +7832,7 @@
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F152">
@@ -7972,19 +7842,14 @@
         <v>1</v>
       </c>
       <c r="H152">
-        <v>222</v>
+        <v>25</v>
       </c>
       <c r="I152">
-        <v>103</v>
+        <v>2</v>
       </c>
       <c r="J152" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>HOLRA-1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L152">
@@ -7994,7 +7859,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -8014,7 +7879,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F153">
@@ -8024,19 +7889,14 @@
         <v>1</v>
       </c>
       <c r="H153">
-        <v>232</v>
+        <v>21</v>
       </c>
       <c r="I153">
-        <v>107</v>
+        <v>1</v>
       </c>
       <c r="J153" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L153">
@@ -8046,7 +7906,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -8066,7 +7926,7 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F154">
@@ -8076,19 +7936,14 @@
         <v>1</v>
       </c>
       <c r="H154">
-        <v>237</v>
+        <v>21</v>
       </c>
       <c r="I154">
-        <v>102</v>
+        <v>1</v>
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L154">
@@ -8098,7 +7953,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -8118,7 +7973,7 @@
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F155">
@@ -8128,19 +7983,14 @@
         <v>1</v>
       </c>
       <c r="H155">
-        <v>250</v>
+        <v>20</v>
       </c>
       <c r="I155">
-        <v>124</v>
+        <v>1</v>
       </c>
       <c r="J155" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>HOLRA-1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L155">
@@ -8150,7 +8000,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -8170,7 +8020,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F156">
@@ -8180,19 +8030,14 @@
         <v>1</v>
       </c>
       <c r="H156">
-        <v>226</v>
+        <v>17</v>
       </c>
       <c r="I156">
-        <v>94</v>
+        <v>1</v>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L156">
@@ -8202,7 +8047,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -8222,7 +8067,7 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F157">
@@ -8232,14 +8077,14 @@
         <v>1</v>
       </c>
       <c r="H157">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="I157">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L157">
@@ -8249,7 +8094,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -8264,12 +8109,12 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F158">
@@ -8279,34 +8124,24 @@
         <v>1</v>
       </c>
       <c r="H158">
-        <v>348</v>
+        <v>23</v>
       </c>
       <c r="I158">
-        <v>485</v>
+        <v>2</v>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L158">
         <v>0</v>
-      </c>
-      <c r="N158" t="inlineStr">
-        <is>
-          <t>SS7756</t>
-        </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -8321,12 +8156,12 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F159">
@@ -8336,34 +8171,24 @@
         <v>1</v>
       </c>
       <c r="H159">
-        <v>286</v>
+        <v>22</v>
       </c>
       <c r="I159">
-        <v>223</v>
+        <v>2</v>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L159">
         <v>0</v>
-      </c>
-      <c r="N159" t="inlineStr">
-        <is>
-          <t>SS7757</t>
-        </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -8378,12 +8203,12 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F160">
@@ -8393,34 +8218,24 @@
         <v>1</v>
       </c>
       <c r="H160">
-        <v>272</v>
+        <v>23</v>
       </c>
       <c r="I160">
-        <v>170</v>
+        <v>2</v>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>HOLRA-2</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L160">
         <v>0</v>
-      </c>
-      <c r="N160" t="inlineStr">
-        <is>
-          <t>SS7758</t>
-        </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -8435,12 +8250,12 @@
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F161">
@@ -8450,34 +8265,24 @@
         <v>1</v>
       </c>
       <c r="H161">
-        <v>215</v>
+        <v>27</v>
       </c>
       <c r="I161">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>HOLRM-2</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L161">
         <v>0</v>
-      </c>
-      <c r="N161" t="inlineStr">
-        <is>
-          <t>SS7759</t>
-        </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -8492,12 +8297,12 @@
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F162">
@@ -8507,34 +8312,24 @@
         <v>1</v>
       </c>
       <c r="H162">
-        <v>324</v>
+        <v>20</v>
       </c>
       <c r="I162">
-        <v>367</v>
+        <v>1</v>
       </c>
       <c r="J162" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>HOLRA-3</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L162">
         <v>0</v>
-      </c>
-      <c r="N162" t="inlineStr">
-        <is>
-          <t>SS7760</t>
-        </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -8554,7 +8349,7 @@
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F163">
@@ -8564,34 +8359,24 @@
         <v>1</v>
       </c>
       <c r="H163">
-        <v>208</v>
+        <v>21</v>
       </c>
       <c r="I163">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>HOLRM-1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L163">
         <v>0</v>
-      </c>
-      <c r="N163" t="inlineStr">
-        <is>
-          <t>SS7761</t>
-        </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -8611,7 +8396,7 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>SOLEVUL</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F164">
@@ -8621,34 +8406,24 @@
         <v>1</v>
       </c>
       <c r="H164">
-        <v>270</v>
+        <v>20</v>
       </c>
       <c r="I164">
-        <v>165</v>
+        <v>1</v>
       </c>
       <c r="J164" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>HOLRM-3</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L164">
         <v>0</v>
-      </c>
-      <c r="N164" t="inlineStr">
-        <is>
-          <t>SS7762</t>
-        </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -8668,7 +8443,7 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>LIOCDEP</t>
+          <t>AEQUOPE</t>
         </is>
       </c>
       <c r="F165">
@@ -8678,17 +8453,957 @@
         <v>1</v>
       </c>
       <c r="H165">
+        <v>18</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+      <c r="J165" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L165">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>AEQUOPE</t>
+        </is>
+      </c>
+      <c r="F166">
+        <v>1</v>
+      </c>
+      <c r="G166">
+        <v>1</v>
+      </c>
+      <c r="H166">
+        <v>18</v>
+      </c>
+      <c r="I166">
+        <v>1</v>
+      </c>
+      <c r="J166" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>AEQUOPE</t>
+        </is>
+      </c>
+      <c r="F167">
+        <v>1</v>
+      </c>
+      <c r="G167">
+        <v>1</v>
+      </c>
+      <c r="H167">
         <v>20</v>
       </c>
-      <c r="I165">
-        <v>4</v>
-      </c>
-      <c r="J165" t="inlineStr">
+      <c r="I167">
+        <v>1</v>
+      </c>
+      <c r="J167" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="L165">
+      <c r="L167">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>AEQUOPE</t>
+        </is>
+      </c>
+      <c r="F168">
+        <v>1</v>
+      </c>
+      <c r="G168">
+        <v>1</v>
+      </c>
+      <c r="H168">
+        <v>18</v>
+      </c>
+      <c r="I168">
+        <v>1</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L168">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>AEQUOPE</t>
+        </is>
+      </c>
+      <c r="F169">
+        <v>1</v>
+      </c>
+      <c r="G169">
+        <v>1</v>
+      </c>
+      <c r="H169">
+        <v>15</v>
+      </c>
+      <c r="I169">
+        <v>1</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L169">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>AEQUOPE</t>
+        </is>
+      </c>
+      <c r="F170">
+        <v>1</v>
+      </c>
+      <c r="G170">
+        <v>1</v>
+      </c>
+      <c r="H170">
+        <v>21</v>
+      </c>
+      <c r="I170">
+        <v>1</v>
+      </c>
+      <c r="J170" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L170">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>AEQUOPE</t>
+        </is>
+      </c>
+      <c r="F171">
+        <v>1</v>
+      </c>
+      <c r="G171">
+        <v>1</v>
+      </c>
+      <c r="H171">
+        <v>20</v>
+      </c>
+      <c r="I171">
+        <v>1</v>
+      </c>
+      <c r="J171" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L171">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>AEQUOPE</t>
+        </is>
+      </c>
+      <c r="F172">
+        <v>1</v>
+      </c>
+      <c r="G172">
+        <v>1</v>
+      </c>
+      <c r="H172">
+        <v>22</v>
+      </c>
+      <c r="I172">
+        <v>2</v>
+      </c>
+      <c r="J172" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L172">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>AEQUOPE</t>
+        </is>
+      </c>
+      <c r="F173">
+        <v>1</v>
+      </c>
+      <c r="G173">
+        <v>1</v>
+      </c>
+      <c r="H173">
+        <v>22</v>
+      </c>
+      <c r="I173">
+        <v>2</v>
+      </c>
+      <c r="J173" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>AEQUOPE</t>
+        </is>
+      </c>
+      <c r="F174">
+        <v>1</v>
+      </c>
+      <c r="G174">
+        <v>1</v>
+      </c>
+      <c r="H174">
+        <v>19</v>
+      </c>
+      <c r="I174">
+        <v>1</v>
+      </c>
+      <c r="J174" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>AEQUOPE</t>
+        </is>
+      </c>
+      <c r="F175">
+        <v>1</v>
+      </c>
+      <c r="G175">
+        <v>1</v>
+      </c>
+      <c r="H175">
+        <v>13</v>
+      </c>
+      <c r="I175">
+        <v>1</v>
+      </c>
+      <c r="J175" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>AEQUOPE</t>
+        </is>
+      </c>
+      <c r="F176">
+        <v>1</v>
+      </c>
+      <c r="G176">
+        <v>1</v>
+      </c>
+      <c r="H176">
+        <v>22</v>
+      </c>
+      <c r="I176">
+        <v>1</v>
+      </c>
+      <c r="J176" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>AEQUOPE</t>
+        </is>
+      </c>
+      <c r="F177">
+        <v>1</v>
+      </c>
+      <c r="G177">
+        <v>1</v>
+      </c>
+      <c r="H177">
+        <v>18</v>
+      </c>
+      <c r="I177">
+        <v>1</v>
+      </c>
+      <c r="J177" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L177">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>AEQUOPE</t>
+        </is>
+      </c>
+      <c r="F178">
+        <v>1</v>
+      </c>
+      <c r="G178">
+        <v>1</v>
+      </c>
+      <c r="H178">
+        <v>16</v>
+      </c>
+      <c r="I178">
+        <v>1</v>
+      </c>
+      <c r="J178" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>AEQUOPE</t>
+        </is>
+      </c>
+      <c r="F179">
+        <v>1</v>
+      </c>
+      <c r="G179">
+        <v>1</v>
+      </c>
+      <c r="H179">
+        <v>14</v>
+      </c>
+      <c r="I179">
+        <v>1</v>
+      </c>
+      <c r="J179" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>AEQUOPE</t>
+        </is>
+      </c>
+      <c r="F180">
+        <v>1</v>
+      </c>
+      <c r="G180">
+        <v>1</v>
+      </c>
+      <c r="H180">
+        <v>23</v>
+      </c>
+      <c r="I180">
+        <v>2</v>
+      </c>
+      <c r="J180" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>CHLAGLA</t>
+        </is>
+      </c>
+      <c r="F181">
+        <v>1</v>
+      </c>
+      <c r="G181">
+        <v>1</v>
+      </c>
+      <c r="H181">
+        <v>55</v>
+      </c>
+      <c r="I181">
+        <v>18</v>
+      </c>
+      <c r="J181" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>CHLAGLA</t>
+        </is>
+      </c>
+      <c r="F182">
+        <v>1</v>
+      </c>
+      <c r="G182">
+        <v>1</v>
+      </c>
+      <c r="H182">
+        <v>48</v>
+      </c>
+      <c r="I182">
+        <v>15</v>
+      </c>
+      <c r="J182" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>CHLAGLA</t>
+        </is>
+      </c>
+      <c r="F183">
+        <v>1</v>
+      </c>
+      <c r="G183">
+        <v>1</v>
+      </c>
+      <c r="H183">
+        <v>18</v>
+      </c>
+      <c r="I183">
+        <v>1</v>
+      </c>
+      <c r="J183" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>CHLAGLA</t>
+        </is>
+      </c>
+      <c r="F184">
+        <v>1</v>
+      </c>
+      <c r="G184">
+        <v>1</v>
+      </c>
+      <c r="H184">
+        <v>50</v>
+      </c>
+      <c r="I184">
+        <v>15</v>
+      </c>
+      <c r="J184" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>SOLEMON2025</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>ITA17</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2-RAP</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>CHLAGLA</t>
+        </is>
+      </c>
+      <c r="F185">
+        <v>1</v>
+      </c>
+      <c r="G185">
+        <v>1</v>
+      </c>
+      <c r="H185">
+        <v>18</v>
+      </c>
+      <c r="I185">
+        <v>1</v>
+      </c>
+      <c r="J185" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+      <c r="L185">
         <v>0</v>
       </c>
     </row>
